--- a/excel_statistik.xlsx
+++ b/excel_statistik.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harje\Documents\R\732G01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C258E3E-55A9-4D5C-A9A8-E2070A8909AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FAFBB-A1D8-41AA-9FB8-CCD3B48F883A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{9D8AD16A-0D5E-4B46-A740-30A49D10A0F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Binomialfördelningen" sheetId="3" r:id="rId1"/>
-    <sheet name="Z-test" sheetId="4" r:id="rId2"/>
+    <sheet name="Z-test" sheetId="4" r:id="rId1"/>
+    <sheet name="Binomialfördelningen" sheetId="3" r:id="rId2"/>
     <sheet name="t-test en - två grupper" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Z-test'!$A$3:$A$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Z-test'!$A$3:$A$42</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Z-test'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Z-test'!$B$2:$B$42</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Z-test'!$B$1</definedName>
@@ -1747,509 +1747,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2753,6 +2250,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3274,6 +3274,2039 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="textruta 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F78888-56F6-4C99-807C-3DB6B384B998}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6219825" y="247650"/>
+              <a:ext cx="3848100" cy="3448050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>X ~N(µ = 20 </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3) </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Excel funktioner</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Medelvärde MEDEL()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Standardavvikelse populationen STDAV.P()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Beräkna sannolikheten från Z NORM.FÖRD()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Kvartilerna:  KVARTIL.INK()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a) Beräkna medelvärdet i populationen X. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b) Beräkna standardavvikelsen i populationen X. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>c) Beräkna Pr(X &lt; 22), antag X ~N(µ = 20 </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3). </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>d) Beräkna Pr(X &gt; x) = 0,03, antag X ~N(µ = 20 </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="sv-SE" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3). </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>e) Beräkna kvartilerna 1-4. </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="textruta 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F78888-56F6-4C99-807C-3DB6B384B998}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6219825" y="247650"/>
+              <a:ext cx="3848100" cy="3448050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>X ~N(µ = 20 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, 𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3) </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Excel funktioner</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Medelvärde MEDEL()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Standardavvikelse populationen STDAV.P()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Beräkna sannolikheten från Z NORM.FÖRD()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Kvartilerna:  KVARTIL.INK()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a) Beräkna medelvärdet i populationen X. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b) Beräkna standardavvikelsen i populationen X. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>c) Beräkna Pr(X &lt; 22), antag X ~N(µ = 20 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, 𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3). </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>d) Beräkna Pr(X &gt; x) = 0,03, antag X ~N(µ = 20 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, 𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 3). </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="sv-SE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>e) Beräkna kvartilerna 1-4. </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3129255" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="textruta 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9876B010-EF8E-4DBF-A826-586EE2795323}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1924050" y="3967162"/>
+              <a:ext cx="3129255" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−20</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=1,88⇒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=20+3∗1,88⇒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=25,64 </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="textruta 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9876B010-EF8E-4DBF-A826-586EE2795323}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1924050" y="3967162"/>
+              <a:ext cx="3129255" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑋−20)/3=1,88⇒𝑋=20+3∗1,88⇒𝑋=25,64 </a:t>
+              </a:r>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1045030" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="textruta 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870DEAE-6A49-468B-A700-A6FD1CF0CAC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4895850" y="2062162"/>
+              <a:ext cx="1045030" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>22−20</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="textruta 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870DEAE-6A49-468B-A700-A6FD1CF0CAC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4895850" y="2062162"/>
+              <a:ext cx="1045030" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑍=(22−20)/3=2/3</a:t>
+              </a:r>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Diagram 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACBA59A-FABC-4E3C-A9AD-DA198A581148}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8172450" y="6262687"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100"/>
+                <a:t>Det här diagrammet är inte tillgängligt i din version av Excel.
+Om du redigerar figuren eller sparar arbetsboken i ett annat filformat bryts diagrammet permanent.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="textruta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C66894-724B-4C84-819B-2985348F5706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="2024062"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1275606" cy="658514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="textruta 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920A629-CE43-4FBD-9B5E-690148EAF81F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4495800" y="1271587"/>
+              <a:ext cx="1275606" cy="658514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:r>
+                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>−</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜇</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="textruta 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920A629-CE43-4FBD-9B5E-690148EAF81F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4495800" y="1271587"/>
+              <a:ext cx="1275606" cy="658514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎=√(1/𝑁 ∑24_(𝑖=1)^𝑁▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝜇)^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="798872" cy="475964"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="textruta 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0493B5F-6E18-42E5-87B4-AFB0766C7F56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="490537"/>
+              <a:ext cx="798872" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="textruta 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0493B5F-6E18-42E5-87B4-AFB0766C7F56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="490537"/>
+              <a:ext cx="798872" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇=1/𝑁  ∑24_(𝑖=1)^𝑁▒𝑋_𝑖 </a:t>
+              </a:r>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685800" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="textruta 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727939D-2CDF-4DEE-86D4-EA241FDC303D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5181600" y="2547936"/>
+              <a:ext cx="685800" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="textruta 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727939D-2CDF-4DEE-86D4-EA241FDC303D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5181600" y="2547936"/>
+              <a:ext cx="685800" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑍=(𝑋−𝜇)/𝜎</a:t>
+              </a:r>
+              <a:endParaRPr lang="sv-SE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7220,2039 +9253,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="textruta 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F78888-56F6-4C99-807C-3DB6B384B998}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6219825" y="247650"/>
-              <a:ext cx="3848100" cy="3448050"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>X ~N(µ = 20 </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜎</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3) </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Excel funktioner</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Medelvärde MEDEL()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Standardavvikelse populationen STDAV.P()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Beräkna sannolikheten från Z NORM.FÖRD()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Kvartilerna:  KVARTIL.INK()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Beräkna medelvärdet i populationen X. </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Beräkna standardavvikelsen i populationen X. </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Beräkna Pr(X &lt; 22), antag X ~N(µ = 20 </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜎</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3). </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) Beräkna Pr(X &gt; x) = 0,03, antag X ~N(µ = 20 </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="sv-SE" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜎</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3). </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>e) Beräkna kvartilerna 1-4. </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="textruta 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F78888-56F6-4C99-807C-3DB6B384B998}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6219825" y="247650"/>
-              <a:ext cx="3848100" cy="3448050"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>X ~N(µ = 20 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, 𝜎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3) </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Excel funktioner</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Medelvärde MEDEL()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Standardavvikelse populationen STDAV.P()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Beräkna sannolikheten från Z NORM.FÖRD()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- Kvartilerna:  KVARTIL.INK()</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Beräkna medelvärdet i populationen X. </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Beräkna standardavvikelsen i populationen X. </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Beräkna Pr(X &lt; 22), antag X ~N(µ = 20 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, 𝜎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3). </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) Beräkna Pr(X &gt; x) = 0,03, antag X ~N(µ = 20 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, 𝜎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = 3). </a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="sv-SE" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>e) Beräkna kvartilerna 1-4. </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3129255" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="textruta 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9876B010-EF8E-4DBF-A826-586EE2795323}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1924050" y="3967162"/>
-              <a:ext cx="3129255" cy="318036"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−20</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>3</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=1,88⇒</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑋</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=20+3∗1,88⇒</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑋</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=25,64 </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="textruta 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9876B010-EF8E-4DBF-A826-586EE2795323}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1924050" y="3967162"/>
-              <a:ext cx="3129255" cy="318036"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑋−20)/3=1,88⇒𝑋=20+3∗1,88⇒𝑋=25,64 </a:t>
-              </a:r>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1045030" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="textruta 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870DEAE-6A49-468B-A700-A6FD1CF0CAC0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4895850" y="2062162"/>
-              <a:ext cx="1045030" cy="318036"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑍</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>22−20</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>3</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>3</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="textruta 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870DEAE-6A49-468B-A700-A6FD1CF0CAC0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4895850" y="2062162"/>
-              <a:ext cx="1045030" cy="318036"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑍=(22−20)/3=2/3</a:t>
-              </a:r>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Diagram 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACBA59A-FABC-4E3C-A9AD-DA198A581148}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8172450" y="6262687"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100"/>
-                <a:t>Det här diagrammet är inte tillgängligt i din version av Excel.
-Om du redigerar figuren eller sparar arbetsboken i ett annat filformat bryts diagrammet permanent.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="textruta 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C66894-724B-4C84-819B-2985348F5706}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14039850" y="2024062"/>
-          <a:ext cx="65" cy="172227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1275606" cy="658514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="textruta 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920A629-CE43-4FBD-9B5E-690148EAF81F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4495800" y="1271587"/>
-              <a:ext cx="1275606" cy="658514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:rad>
-                      <m:radPr>
-                        <m:degHide m:val="on"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:radPr>
-                      <m:deg/>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑁</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                        <m:nary>
-                          <m:naryPr>
-                            <m:chr m:val="∑"/>
-                            <m:ctrlPr>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:naryPr>
-                          <m:sub>
-                            <m:r>
-                              <m:rPr>
-                                <m:brk m:alnAt="23"/>
-                              </m:rPr>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>=1</m:t>
-                            </m:r>
-                          </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑁</m:t>
-                            </m:r>
-                          </m:sup>
-                          <m:e>
-                            <m:sSup>
-                              <m:sSupPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSupPr>
-                              <m:e>
-                                <m:d>
-                                  <m:dPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:dPr>
-                                  <m:e>
-                                    <m:sSub>
-                                      <m:sSubPr>
-                                        <m:ctrlPr>
-                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="tx1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                        </m:ctrlPr>
-                                      </m:sSubPr>
-                                      <m:e>
-                                        <m:r>
-                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="tx1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                          <m:t>𝑥</m:t>
-                                        </m:r>
-                                      </m:e>
-                                      <m:sub>
-                                        <m:r>
-                                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="tx1"/>
-                                            </a:solidFill>
-                                            <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="+mn-cs"/>
-                                          </a:rPr>
-                                          <m:t>𝑖</m:t>
-                                        </m:r>
-                                      </m:sub>
-                                    </m:sSub>
-                                    <m:r>
-                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>−</m:t>
-                                    </m:r>
-                                    <m:r>
-                                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝜇</m:t>
-                                    </m:r>
-                                  </m:e>
-                                </m:d>
-                              </m:e>
-                              <m:sup>
-                                <m:r>
-                                  <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>2</m:t>
-                                </m:r>
-                              </m:sup>
-                            </m:sSup>
-                          </m:e>
-                        </m:nary>
-                      </m:e>
-                    </m:rad>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="textruta 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920A629-CE43-4FBD-9B5E-690148EAF81F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4495800" y="1271587"/>
-              <a:ext cx="1275606" cy="658514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎=√(1/𝑁 ∑24_(𝑖=1)^𝑁▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−𝜇)^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="798872" cy="475964"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="textruta 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0493B5F-6E18-42E5-87B4-AFB0766C7F56}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4724400" y="490537"/>
-              <a:ext cx="798872" cy="475964"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜇</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑁</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑁</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑋</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:nary>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="textruta 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0493B5F-6E18-42E5-87B4-AFB0766C7F56}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4724400" y="490537"/>
-              <a:ext cx="798872" cy="475964"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜇=1/𝑁  ∑24_(𝑖=1)^𝑁▒𝑋_𝑖 </a:t>
-              </a:r>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="685800" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="textruta 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727939D-2CDF-4DEE-86D4-EA241FDC303D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5181600" y="2547936"/>
-              <a:ext cx="685800" cy="316882"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑍</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜇</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="sv-SE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="textruta 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727939D-2CDF-4DEE-86D4-EA241FDC303D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5181600" y="2547936"/>
-              <a:ext cx="685800" cy="316882"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="sv-SE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑍=(𝑋−𝜇)/𝜎</a:t>
-              </a:r>
-              <a:endParaRPr lang="sv-SE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -11057,6 +11057,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F6C650-664D-4F6F-ADEA-C5630FDBA230}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20.132390000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>19.169989999999999</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>18.79515</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20.088699999999999</v>
+      </c>
+      <c r="D5" s="15">
+        <f>AVERAGE(B:B)</f>
+        <v>20.057480250000005</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17.091449999999998</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24.409389999999998</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>21.821960000000001</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17.168389999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <f>_xlfn.STDEV.P(B:B)</f>
+        <v>2.9560601466779008</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>21.96238</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>16.95534</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20.316389999999998</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8">
+        <f>(22-20)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23.107710000000001</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23.00198</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="8">
+        <f>_xlfn.NORM.DIST(E12,0,1,TRUE)</f>
+        <v>0.74750746245307709</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15.18333</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>21.495170000000002</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>13.007160000000001</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20.708069999999999</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>21.55058</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>18.44136</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>22.707719999999998</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21.286049999999999</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>21.287050000000001</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>26.685839999999999</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20.29664</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>21.44604</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>18.63139</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>13.56133</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>18.995270000000001</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <f>_xlfn.QUARTILE.INC(B:B,0)</f>
+        <v>13.007160000000001</v>
+      </c>
+      <c r="F29" s="8">
+        <f>_xlfn.QUARTILE.INC(B:B,1)</f>
+        <v>18.450434999999999</v>
+      </c>
+      <c r="G29" s="8">
+        <f>_xlfn.QUARTILE.INC(B:B,2)</f>
+        <v>20.306514999999997</v>
+      </c>
+      <c r="H29" s="8">
+        <f>_xlfn.QUARTILE.INC(B:B,3)</f>
+        <v>21.857064999999999</v>
+      </c>
+      <c r="I29" s="9">
+        <f>_xlfn.QUARTILE.INC(B:B,4)</f>
+        <v>26.685839999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>23.237839999999998</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>17.967569999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>24.99212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>18.699770000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>21.78182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>20.763300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>22.238320000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>23.185020000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>18.45346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>15.123519999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>19.412410000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>17.13984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:A42" xr:uid="{D4485695-3D1C-479D-A80C-BCBF69B9ED7A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AD3105-ED12-430B-AD42-FA5EEEFB697F}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -11507,582 +12073,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F6C650-664D-4F6F-ADEA-C5630FDBA230}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20.132390000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>19.169989999999999</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>18.79515</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20.088699999999999</v>
-      </c>
-      <c r="D5" s="15">
-        <f>AVERAGE(B:B)</f>
-        <v>20.327781707317076</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>17.091449999999998</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>24.409389999999998</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>21.821960000000001</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>17.168389999999999</v>
-      </c>
-      <c r="D9" s="15">
-        <f>_xlfn.STDEV.P(B:B)</f>
-        <v>2.9330089572205282</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>21.96238</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>24.95534</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>20.316389999999998</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="8">
-        <f>(22-20)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>23.107710000000001</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>23.00198</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="8">
-        <f>_xlfn.NORM.DIST(E12,0,1,TRUE)</f>
-        <v>0.74750746245307709</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>24.183330000000002</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>21.495170000000002</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>13.007160000000001</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>20.708069999999999</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>21.55058</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>18.44136</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>22.707719999999998</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21.286049999999999</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>21.287050000000001</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>26.685839999999999</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>20.29664</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>21.44604</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>18.63139</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>13.56133</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>18.995270000000001</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <f>_xlfn.QUARTILE.INC(B:B,0)</f>
-        <v>13.007160000000001</v>
-      </c>
-      <c r="F29" s="8">
-        <f>_xlfn.QUARTILE.INC(B:B,1)</f>
-        <v>18.63139</v>
-      </c>
-      <c r="G29" s="8">
-        <f>_xlfn.QUARTILE.INC(B:B,2)</f>
-        <v>20.316389999999998</v>
-      </c>
-      <c r="H29" s="8">
-        <f>_xlfn.QUARTILE.INC(B:B,3)</f>
-        <v>21.96238</v>
-      </c>
-      <c r="I29" s="9">
-        <f>_xlfn.QUARTILE.INC(B:B,4)</f>
-        <v>26.685839999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>20.237839999999998</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>17.967569999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>24.99212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>18.699770000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>21.78182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>20.763300000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>23.238320000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>22.185020000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>18.45346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>15.123519999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>19.412410000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>17.13984</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>17.13984</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:A42" xr:uid="{D4485695-3D1C-479D-A80C-BCBF69B9ED7A}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A893D3-E494-4229-BB74-B2C892EE763A}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
